--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS BANAGAR\OneDrive\Documents\Python Programs\Email sender app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C23543-51AF-4934-92EE-C1563C7E1215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063D3B49-738A-4F5F-999F-B1A1618E5998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="22380" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>Company Name</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>shreyasbanagar7@gmail.com</t>
+  </si>
+  <si>
+    <t>Vandana Ltd.</t>
+  </si>
+  <si>
+    <t>vandana.banagar7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -367,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -395,9 +401,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{78695C77-5054-45AA-AB68-762CBE9F87C6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{263FDB50-9005-4C09-AB78-6E8CC2120AD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS BANAGAR\OneDrive\Documents\Python Programs\Email sender app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063D3B49-738A-4F5F-999F-B1A1618E5998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A08AE8-61E0-4AE0-B5B9-B32D4695B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="22380" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Company Name</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>vandana.banagar7@gmail.com</t>
+  </si>
+  <si>
+    <t>csbanagar7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,10 +412,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{78695C77-5054-45AA-AB68-762CBE9F87C6}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{263FDB50-9005-4C09-AB78-6E8CC2120AD9}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{0BA1D48F-14B5-4E26-AB4C-7A098E7FBB92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS BANAGAR\OneDrive\Documents\Python Programs\Email sender app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A08AE8-61E0-4AE0-B5B9-B32D4695B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5D5C4C-C8D2-4B96-8859-D8F869CAA96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="22380" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Company Name</t>
   </si>
@@ -41,20 +41,20 @@
     <t>shreyasbanagar7@gmail.com</t>
   </si>
   <si>
-    <t>Vandana Ltd.</t>
+    <t>Company Email ID</t>
   </si>
   <si>
-    <t>vandana.banagar7@gmail.com</t>
+    <t>Shreyas Ltd</t>
   </si>
   <si>
-    <t>csbanagar7@gmail.com</t>
+    <t>shreyasbanagar7@gmail.com, vandana.banagar7@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,9 +100,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -376,53 +390,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="35.36328125" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{78695C77-5054-45AA-AB68-762CBE9F87C6}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{263FDB50-9005-4C09-AB78-6E8CC2120AD9}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0BA1D48F-14B5-4E26-AB4C-7A098E7FBB92}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
